--- a/biology/Botanique/Tillandsia_lilacina/Tillandsia_lilacina.xlsx
+++ b/biology/Botanique/Tillandsia_lilacina/Tillandsia_lilacina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia lilacina Mez est une espèce de plantes à fleurs de la famille des Bromeliaceae.
 L'épithète lilacina signifie « de couleur lilas » et se rapporte à la couleur des bractées florales.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia lilacina Mez in C.DC., Monogr. Phan. 9: 806, n° 168 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « statura parva ; foliis rosulatis, adultis utrinque glabris v. dorso minutissime perobscureque lepidoto-punctulatis ; inflorescentia bipinnatim panniculata[sic] ; spicis perangustis sublinearibus, 2-4-floris, subsessilibus, inferioribus mediisque quam bracteae primariae brevioribus ; bracteolis florigeris sepala superantibus ; floribus strictissime erectis ; sepalis antico libero, posticis binis ad 2 mm. connatis ; petalis (ex sicco rubris) stamina superantibus. »
-Type : leg. Rothschuh, n° 112 ; « Nicaragua, dept. Matagalpa, prope Cañada Garcia » ; Holotypus B (Herb. Berol.) [1].
+Type : leg. Rothschuh, n° 112 ; « Nicaragua, dept. Matagalpa, prope Cañada Garcia » ; Holotypus B (Herb. Berol.) .
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,9 +620,11 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Biotype : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte.
 Habitat : ?
 Altitude : ?</t>
         </is>
@@ -634,11 +654,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique centrale :
  Nicaragua
-Matagalpa[1]</t>
+Matagalpa</t>
         </is>
       </c>
     </row>
@@ -666,7 +688,9 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia lilacina est une plante mal connue qui ne semble pas avoir été introduite en culture, tout du moins sous ce nom.
 </t>
